--- a/Python/Hockey pool/2024/Pool Picks.xlsx
+++ b/Python/Hockey pool/2024/Pool Picks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C60A4A-664F-4AE4-9FE4-E6111044788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77260C-DBAE-4263-8685-12EBC6FC3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B505ACE-8192-4028-83DD-6AB5B3676DF5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="139">
   <si>
     <t>McDavid, Connor (C)</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Ovechkin, Alex (LW)</t>
+  </si>
+  <si>
+    <t>BEST_PICKS</t>
   </si>
 </sst>
 </file>
@@ -825,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F787D4C-BE01-40A8-B2C7-6EC3AD923A99}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,9 +857,10 @@
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.7109375" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -920,8 +924,11 @@
       <c r="U1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -985,8 +992,11 @@
       <c r="U2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1060,11 @@
       <c r="U3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1115,8 +1128,11 @@
       <c r="U4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1180,8 +1196,11 @@
       <c r="U5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1245,8 +1264,11 @@
       <c r="U6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1310,8 +1332,11 @@
       <c r="U7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1375,8 +1400,11 @@
       <c r="U8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1440,8 +1468,11 @@
       <c r="U9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1505,8 +1536,11 @@
       <c r="U10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1570,8 +1604,11 @@
       <c r="U11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1635,8 +1672,11 @@
       <c r="U12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1700,8 +1740,11 @@
       <c r="U13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1765,8 +1808,11 @@
       <c r="U14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1830,8 +1876,11 @@
       <c r="U15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1895,8 +1944,11 @@
       <c r="U16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1960,8 +2012,11 @@
       <c r="U17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2025,8 +2080,11 @@
       <c r="U18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2090,8 +2148,11 @@
       <c r="U19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2155,8 +2216,11 @@
       <c r="U20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2220,8 +2284,11 @@
       <c r="U21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2285,8 +2352,11 @@
       <c r="U22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2350,8 +2420,11 @@
       <c r="U23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2415,8 +2488,11 @@
       <c r="U24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2479,6 +2555,9 @@
       </c>
       <c r="U25" t="s">
         <v>47</v>
+      </c>
+      <c r="V25" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Hockey pool/2024/Pool Picks.xlsx
+++ b/Python/Hockey pool/2024/Pool Picks.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77260C-DBAE-4263-8685-12EBC6FC3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A278C-A9DA-47CF-A21D-EEE578409254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B505ACE-8192-4028-83DD-6AB5B3676DF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2B505ACE-8192-4028-83DD-6AB5B3676DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="155">
   <si>
     <t>McDavid, Connor (C)</t>
   </si>
@@ -457,13 +458,61 @@
   </si>
   <si>
     <t>BEST_PICKS</t>
+  </si>
+  <si>
+    <t>Cirelli, Anthony (C)</t>
+  </si>
+  <si>
+    <t>Duclaire, Anthony (C)</t>
+  </si>
+  <si>
+    <t>Paul, Nick (C)</t>
+  </si>
+  <si>
+    <t>Tampa Bay, (Team)</t>
+  </si>
+  <si>
+    <t>Liljegren, T (D)</t>
+  </si>
+  <si>
+    <t>Raddysh, Darryn (D)</t>
+  </si>
+  <si>
+    <t>Forsberg, Fillip (C)</t>
+  </si>
+  <si>
+    <t>Stone, Mark (C)</t>
+  </si>
+  <si>
+    <t>Fiala, Kevin (C)</t>
+  </si>
+  <si>
+    <t>Vilardi, Gabriel (C)</t>
+  </si>
+  <si>
+    <t>Novak, Thomas (C)</t>
+  </si>
+  <si>
+    <t>Theodore, Shea (D)</t>
+  </si>
+  <si>
+    <t>Walker, Sean (D)</t>
+  </si>
+  <si>
+    <t>Nashville (Team)</t>
+  </si>
+  <si>
+    <t>Los Angeles (Team)</t>
+  </si>
+  <si>
+    <t>WORST_PICKS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,37 +879,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F787D4C-BE01-40A8-B2C7-6EC3AD923A99}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="25.375" customWidth="1"/>
+    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.75" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -928,7 +977,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +1997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +2269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2288,7 +2337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2424,7 +2473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2492,7 +2541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2567,15 +2616,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B91D45-99DD-445E-9D59-6D55352F137F}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531CA44F-7D37-45D6-9BE5-314B30E737C1}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A24"/>
+      <selection activeCell="A2" sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2591,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2599,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2607,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2615,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2623,7 +2842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -2639,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2647,7 +2866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -2655,7 +2874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2663,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2671,7 +2890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2695,7 +2914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2703,7 +2922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -2711,7 +2930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2719,7 +2938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2727,7 +2946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -2735,7 +2954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2743,7 +2962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2751,7 +2970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2759,7 +2978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2768,9 +2987,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:M24">
-    <sortCondition ref="B1:B24"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>